--- a/tools/baidu-qianxi/move_out/乌海.xlsx
+++ b/tools/baidu-qianxi/move_out/乌海.xlsx
@@ -23,19 +23,17 @@
     <sheet name="20200123" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="20200124" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="20200125" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="20200126" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="20200127" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="20200128" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="20200129" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="20200130" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="20200131" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="20200201" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="20200202" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="20200203" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="20200204" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="20200205" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="20200206" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="20200207" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="20200127" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="20200128" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="20200129" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="20200130" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="20200131" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="20200201" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="20200202" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="20200203" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="20200204" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="20200205" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="20200206" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15114,7 +15112,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>38.33</v>
+        <v>39.29</v>
       </c>
     </row>
     <row r="3">
@@ -15123,7 +15121,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>巴彦淖尔市</t>
+          <t>阿拉善盟</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -15132,7 +15130,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20.94</v>
+        <v>14.55</v>
       </c>
     </row>
     <row r="4">
@@ -15141,7 +15139,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>阿拉善盟</t>
+          <t>巴彦淖尔市</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -15150,7 +15148,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11.31</v>
+        <v>12.35</v>
       </c>
     </row>
     <row r="5">
@@ -15159,16 +15157,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>石嘴山市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>5.86</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="6">
@@ -15177,16 +15175,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>包头市</t>
+          <t>石嘴山市</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4.61</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="7">
@@ -15195,7 +15193,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>包头市</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -15204,7 +15202,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.57</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="8">
@@ -15222,7 +15220,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.42</v>
+        <v>4.16</v>
       </c>
     </row>
     <row r="9">
@@ -15231,16 +15229,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>榆林市</t>
+          <t>乌兰察布市</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="10">
@@ -15249,16 +15247,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="11">
@@ -15267,16 +15265,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>榆林市</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.53</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="12">
@@ -15285,16 +15283,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>西安市</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.46</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="13">
@@ -15303,16 +15301,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>大同市</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="14">
@@ -15321,16 +15319,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>吴忠市</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="15">
@@ -15339,16 +15337,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>大同市</t>
+          <t>中卫市</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
@@ -15357,16 +15355,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>赤峰市</t>
+          <t>庆阳市</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.27</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="17">
@@ -15375,16 +15373,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>赤峰市</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="18">
@@ -15393,16 +15391,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>西安市</t>
+          <t>锡林郭勒盟</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="19">
@@ -15411,16 +15409,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>武威市</t>
+          <t>固原市</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
@@ -15429,16 +15427,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>平凉市</t>
+          <t>廊坊市</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
@@ -15447,12 +15445,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>通辽市</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -15483,16 +15481,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>武威市</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="24">
@@ -15501,16 +15499,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>白银市</t>
+          <t>朔州市</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="25">
@@ -15519,16 +15517,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="26">
@@ -15537,16 +15535,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>青岛市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="27">
@@ -15555,16 +15553,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>朔州市</t>
+          <t>白银市</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="28">
@@ -15573,16 +15571,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>通辽市</t>
+          <t>太原市</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="29">
@@ -15591,7 +15589,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>保定市</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -15600,7 +15598,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30">
@@ -15609,16 +15607,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>天水市</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
@@ -15627,16 +15625,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>锡林郭勒盟</t>
+          <t>张家口市</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32">
@@ -15645,16 +15643,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>西宁市</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="33">
@@ -15663,7 +15661,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>咸阳市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -15672,7 +15670,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="34">
@@ -15681,16 +15679,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>张掖市</t>
+          <t>海东市</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="35">
@@ -15699,16 +15697,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>唐山市</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -15717,16 +15715,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>哈尔滨市</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="37">
@@ -15735,16 +15733,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>沈阳市</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="38">
@@ -15753,16 +15751,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>商丘市</t>
+          <t>咸阳市</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="39">
@@ -15771,12 +15769,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>青岛市</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -15789,16 +15787,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吕梁市</t>
+          <t>金昌市</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="41">
@@ -15807,16 +15805,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>海口市</t>
+          <t>开封市</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>海南省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -15825,12 +15823,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>商丘市</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -15843,12 +15841,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>新乡市</t>
+          <t>衡水市</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D43" t="n">
@@ -15861,12 +15859,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>保定市</t>
+          <t>广州市</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -15879,16 +15877,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>滁州市</t>
+          <t>平凉市</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
@@ -15897,16 +15895,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
@@ -15915,16 +15913,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>临汾市</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="48">
@@ -15933,16 +15931,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>天水市</t>
+          <t>忻州市</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="49">
@@ -15951,12 +15949,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -15969,12 +15967,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>许昌市</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -15987,12 +15985,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>宿州市</t>
+          <t>菏泽市</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D51" t="n">
@@ -16005,12 +16003,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>沧州市</t>
+          <t>晋中市</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -16023,12 +16021,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>濮阳市</t>
+          <t>盘锦市</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -16041,12 +16039,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>德州市</t>
+          <t>杭州市</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D54" t="n">
@@ -16059,16 +16057,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="56">
@@ -16077,16 +16075,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>鹤岗市</t>
+          <t>沧州市</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57">
@@ -16095,16 +16093,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>呼伦贝尔市</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="58">
@@ -16113,16 +16111,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>临夏回族自治州</t>
+          <t>南充市</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59">
@@ -16131,16 +16129,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>景德镇市</t>
+          <t>石家庄市</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="60">
@@ -16149,12 +16147,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>呼伦贝尔市</t>
+          <t>深圳市</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -16167,7 +16165,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>朝阳市</t>
+          <t>大连市</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -16185,12 +16183,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>吕梁市</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -16203,16 +16201,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>辽阳市</t>
+          <t>临夏回族自治州</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="64">
@@ -16221,16 +16219,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>深圳市</t>
+          <t>福州市</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>福建省</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="65">
@@ -16239,16 +16237,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>荆门市</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="66">
@@ -16257,16 +16255,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>大连市</t>
+          <t>酒泉市</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="67">
@@ -16275,16 +16273,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>铜川市</t>
+          <t>淄博市</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="68">
@@ -16293,16 +16291,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>三亚市</t>
+          <t>绥化市</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>海南省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="69">
@@ -16311,16 +16309,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>宝鸡市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="70">
@@ -16329,16 +16327,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>吉林市</t>
+          <t>兴安盟</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>吉林省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="71">
@@ -16347,16 +16345,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>苏州市</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="72">
@@ -16365,16 +16363,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>莆田市</t>
+          <t>台州市</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="73">
@@ -16383,16 +16381,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>亳州市</t>
+          <t>济南市</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="74">
@@ -16401,16 +16399,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>哈密市</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>新疆维吾尔自治区</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="75">
@@ -16419,16 +16417,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>东营市</t>
+          <t>濮阳市</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="76">
@@ -16437,16 +16435,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>安阳市</t>
+          <t>张掖市</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="77">
@@ -16455,16 +16453,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>阜阳市</t>
+          <t>宜昌市</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="78">
@@ -16473,16 +16471,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>邢台市</t>
+          <t>辽阳市</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="79">
@@ -16491,16 +16489,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>兴安盟</t>
+          <t>广安市</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="80">
@@ -16509,16 +16507,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>温州市</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="81">
@@ -16527,16 +16525,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>松原市</t>
+          <t>贵阳市</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>吉林省</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="82">
@@ -16545,16 +16543,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>芜湖市</t>
+          <t>江门市</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="83">
@@ -16563,16 +16561,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>鞍山市</t>
+          <t>泰州市</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="84">
@@ -16581,7 +16579,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>巴中市</t>
+          <t>宜宾市</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -16590,7 +16588,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="85">
@@ -16599,16 +16597,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>南昌市</t>
+          <t>齐齐哈尔市</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="86">
@@ -16617,16 +16615,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>天门市</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87">
@@ -16635,12 +16633,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>承德市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -16653,12 +16651,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>大庆市</t>
+          <t>阜新市</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -16671,12 +16669,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>吐鲁番市</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>新疆维吾尔自治区</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -16689,12 +16687,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>长沙市</t>
+          <t>昆明市</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -16707,12 +16705,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>广元市</t>
+          <t>驻马店市</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -16725,12 +16723,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>江门市</t>
+          <t>宝鸡市</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -16743,12 +16741,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>滨州市</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -16761,12 +16759,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>枣庄市</t>
+          <t>宿迁市</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -16779,12 +16777,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>镇江市</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -16797,12 +16795,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>潍坊市</t>
+          <t>雅安市</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -16815,12 +16813,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>葫芦岛市</t>
+          <t>舟山市</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -16833,12 +16831,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>三门峡市</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -16851,7 +16849,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>南阳市</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -16869,12 +16867,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>宣城市</t>
+          <t>邯郸市</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -16887,12 +16885,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -16950,7 +16948,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>39.29</v>
+        <v>43.26</v>
       </c>
     </row>
     <row r="3">
@@ -16968,7 +16966,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>14.55</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="4">
@@ -16977,7 +16975,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>巴彦淖尔市</t>
+          <t>呼和浩特市</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -16986,7 +16984,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12.35</v>
+        <v>8.02</v>
       </c>
     </row>
     <row r="5">
@@ -16995,7 +16993,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>呼和浩特市</t>
+          <t>巴彦淖尔市</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -17004,7 +17002,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6.49</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="6">
@@ -17022,7 +17020,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.27</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="7">
@@ -17040,7 +17038,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5.17</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="8">
@@ -17058,7 +17056,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4.16</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9">
@@ -17076,7 +17074,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="10">
@@ -17094,7 +17092,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="11">
@@ -17112,7 +17110,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -17130,7 +17128,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.57</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13">
@@ -17139,16 +17137,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>大同市</t>
+          <t>庆阳市</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.51</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="14">
@@ -17157,16 +17155,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>廊坊市</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="15">
@@ -17184,7 +17182,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="16">
@@ -17193,16 +17191,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="17">
@@ -17211,7 +17209,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>赤峰市</t>
+          <t>锡林郭勒盟</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -17220,7 +17218,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18">
@@ -17229,16 +17227,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>锡林郭勒盟</t>
+          <t>吴忠市</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.21</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="19">
@@ -17247,16 +17245,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>太原市</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="20">
@@ -17265,16 +17263,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>海东市</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
@@ -17301,12 +17299,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>定西市</t>
+          <t>吕梁市</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -17319,12 +17317,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>武威市</t>
+          <t>张家口市</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -17337,16 +17335,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>朔州市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25">
@@ -17355,16 +17353,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>赤峰市</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="26">
@@ -17373,16 +17371,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>固原市</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="27">
@@ -17391,7 +17389,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>白银市</t>
+          <t>天水市</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -17409,12 +17407,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>保定市</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D28" t="n">
@@ -17427,16 +17425,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>保定市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="30">
@@ -17445,16 +17443,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>天水市</t>
+          <t>唐山市</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="31">
@@ -17463,16 +17461,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>白银市</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="32">
@@ -17481,16 +17479,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="33">
@@ -17499,16 +17497,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>大连市</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="34">
@@ -17517,16 +17515,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>酒泉市</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="35">
@@ -17535,16 +17533,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>定西市</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="36">
@@ -17553,12 +17551,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>沈阳市</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -17571,16 +17569,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>朔州市</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -17589,7 +17587,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>咸阳市</t>
+          <t>宝鸡市</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -17598,7 +17596,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="39">
@@ -17607,12 +17605,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>青岛市</t>
+          <t>大同市</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -17625,12 +17623,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>金昌市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -17643,12 +17641,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>石家庄市</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -17661,16 +17659,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>商丘市</t>
+          <t>深圳市</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="43">
@@ -17679,16 +17677,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>长沙市</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="44">
@@ -17697,16 +17695,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>广州市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="45">
@@ -17715,16 +17713,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>平凉市</t>
+          <t>眉山市</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="46">
@@ -17733,16 +17731,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="47">
@@ -17760,7 +17758,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="48">
@@ -17769,16 +17767,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>武威市</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="49">
@@ -17787,16 +17785,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>兴安盟</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="50">
@@ -17805,16 +17803,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>西宁市</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="51">
@@ -17823,16 +17821,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>呼伦贝尔市</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="52">
@@ -17841,16 +17839,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>青岛市</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="53">
@@ -17859,16 +17857,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>东莞市</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="54">
@@ -17877,7 +17875,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>温州市</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -17886,7 +17884,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="55">
@@ -17895,16 +17893,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>商丘市</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="56">
@@ -17913,16 +17911,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>沧州市</t>
+          <t>许昌市</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="57">
@@ -17931,16 +17929,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>呼伦贝尔市</t>
+          <t>郑州市</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="58">
@@ -17949,16 +17947,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>衡水市</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="59">
@@ -17967,16 +17965,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>汉中市</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="60">
@@ -17985,12 +17983,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>深圳市</t>
+          <t>潍坊市</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D60" t="n">
@@ -18003,12 +18001,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>大连市</t>
+          <t>长春市</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -18021,12 +18019,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>吕梁市</t>
+          <t>阜新市</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D62" t="n">
@@ -18039,12 +18037,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>临夏回族自治州</t>
+          <t>晋中市</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -18057,12 +18055,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>福州市</t>
+          <t>昆明市</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -18075,12 +18073,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>荆门市</t>
+          <t>盘锦市</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D65" t="n">
@@ -18093,12 +18091,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>酒泉市</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="D66" t="n">
@@ -18111,12 +18109,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>淄博市</t>
+          <t>嘉峪关市</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D67" t="n">
@@ -18129,12 +18127,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>绥化市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="D68" t="n">
@@ -18147,12 +18145,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>杭州市</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D69" t="n">
@@ -18165,12 +18163,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>兴安盟</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="D70" t="n">
@@ -18183,12 +18181,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>苏州市</t>
+          <t>渭南市</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D71" t="n">
@@ -18201,12 +18199,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>台州市</t>
+          <t>防城港市</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -18219,12 +18217,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>哈密市</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>新疆维吾尔自治区</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -18237,12 +18235,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>哈密市</t>
+          <t>厦门市</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区</t>
+          <t>福建省</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -18255,12 +18253,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>濮阳市</t>
+          <t>南昌市</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="D75" t="n">
@@ -18273,12 +18271,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>张掖市</t>
+          <t>咸阳市</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -18291,12 +18289,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>宜昌市</t>
+          <t>张掖市</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D77" t="n">
@@ -18309,12 +18307,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>辽阳市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D78" t="n">
@@ -18327,12 +18325,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>广安市</t>
+          <t>泰州市</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D79" t="n">
@@ -18345,12 +18343,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>铜川市</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -18363,12 +18361,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>贵阳市</t>
+          <t>哈尔滨市</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -18381,12 +18379,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>江门市</t>
+          <t>宁波市</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -18399,12 +18397,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>陵水黎族自治县</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -18417,12 +18415,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>宜宾市</t>
+          <t>临夏回族自治州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D84" t="n">
@@ -18435,12 +18433,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>齐齐哈尔市</t>
+          <t>周口市</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -18453,12 +18451,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>天门市</t>
+          <t>澄迈县</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>湖北省</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -18471,12 +18469,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>金昌市</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -18489,12 +18487,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>三门峡市</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D88" t="n">
@@ -18507,12 +18505,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>吐鲁番市</t>
+          <t>吉安市</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -18525,12 +18523,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>邯郸市</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -18543,7 +18541,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>驻马店市</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -18561,12 +18559,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>宝鸡市</t>
+          <t>忻州市</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -18579,12 +18577,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>滨州市</t>
+          <t>昭通市</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -18597,12 +18595,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>宿迁市</t>
+          <t>陇南市</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -18615,12 +18613,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>镇江市</t>
+          <t>昌吉回族自治州</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>新疆维吾尔自治区</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -18633,7 +18631,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>雅安市</t>
+          <t>南充市</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -18651,12 +18649,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>舟山市</t>
+          <t>遵义市</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -18669,12 +18667,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>三门峡市</t>
+          <t>济南市</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -18687,12 +18685,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>南阳市</t>
+          <t>桂林市</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="D99" t="n">
@@ -18705,12 +18703,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>濮阳市</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -18723,12 +18721,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>自贡市</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D101" t="n">
@@ -18786,7 +18784,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43.26</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="3">
@@ -18804,7 +18802,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>16.38</v>
+        <v>17.62</v>
       </c>
     </row>
     <row r="4">
@@ -18822,7 +18820,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8.02</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="5">
@@ -18840,7 +18838,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>7.91</v>
+        <v>5.22</v>
       </c>
     </row>
     <row r="6">
@@ -18858,7 +18856,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5.03</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="7">
@@ -18876,7 +18874,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4.9</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="8">
@@ -18894,7 +18892,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="9">
@@ -18903,16 +18901,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>乌兰察布市</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>北京市</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.51</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="10">
@@ -18921,16 +18919,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>乌兰察布市</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>北京市</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -18939,7 +18937,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>榆林市</t>
+          <t>西安市</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -18948,7 +18946,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -18957,7 +18955,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>西安市</t>
+          <t>榆林市</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -18966,7 +18964,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.45</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="13">
@@ -18975,16 +18973,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>庆阳市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.39</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
@@ -18993,7 +18991,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>廊坊市</t>
+          <t>张家口市</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -19002,7 +19000,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="15">
@@ -19011,16 +19009,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中卫市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="16">
@@ -19029,16 +19027,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>庆阳市</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="17">
@@ -19047,16 +19045,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>锡林郭勒盟</t>
+          <t>中卫市</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="18">
@@ -19065,16 +19063,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>吴忠市</t>
+          <t>延安市</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="19">
@@ -19083,16 +19081,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>太原市</t>
+          <t>广州市</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.26</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="20">
@@ -19101,16 +19099,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>海东市</t>
+          <t>赤峰市</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="21">
@@ -19119,7 +19117,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>通辽市</t>
+          <t>锡林郭勒盟</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -19128,7 +19126,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="22">
@@ -19137,16 +19135,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>吕梁市</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="23">
@@ -19155,7 +19153,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>张家口市</t>
+          <t>石家庄市</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -19164,7 +19162,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="24">
@@ -19173,16 +19171,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>兰州市</t>
+          <t>吴忠市</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25">
@@ -19191,16 +19189,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>赤峰市</t>
+          <t>廊坊市</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="26">
@@ -19209,16 +19207,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>固原市</t>
+          <t>杭州市</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="27">
@@ -19227,12 +19225,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>天水市</t>
+          <t>大同市</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D27" t="n">
@@ -19245,7 +19243,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>保定市</t>
+          <t>唐山市</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -19263,16 +19261,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>延安市</t>
+          <t>白银市</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="30">
@@ -19281,12 +19279,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -19299,12 +19297,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>白银市</t>
+          <t>西宁市</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -19317,16 +19315,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>成都市</t>
+          <t>沈阳市</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="33">
@@ -19335,16 +19333,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>大连市</t>
+          <t>吕梁市</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34">
@@ -19353,16 +19351,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>酒泉市</t>
+          <t>吉林市</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="35">
@@ -19371,16 +19369,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>定西市</t>
+          <t>保定市</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="36">
@@ -19389,16 +19387,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>沈阳市</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>重庆市</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="37">
@@ -19407,16 +19405,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>朔州市</t>
+          <t>咸阳市</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="38">
@@ -19425,16 +19423,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宝鸡市</t>
+          <t>承德市</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="39">
@@ -19443,16 +19441,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>大同市</t>
+          <t>成都市</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="40">
@@ -19461,16 +19459,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>秦皇岛市</t>
+          <t>郑州市</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
@@ -19479,16 +19477,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>石家庄市</t>
+          <t>南宁市</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="42">
@@ -19497,16 +19495,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>深圳市</t>
+          <t>忻州市</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="43">
@@ -19515,16 +19513,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>长沙市</t>
+          <t>沧州市</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="44">
@@ -19533,16 +19531,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>合肥市</t>
+          <t>青岛市</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="45">
@@ -19551,16 +19549,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>眉山市</t>
+          <t>通辽市</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>内蒙古自治区</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="46">
@@ -19569,16 +19567,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>南京市</t>
+          <t>贵阳市</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>贵州省</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="47">
@@ -19587,16 +19585,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>临汾市</t>
+          <t>商丘市</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="48">
@@ -19605,16 +19603,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>武威市</t>
+          <t>许昌市</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="49">
@@ -19623,16 +19621,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>兴安盟</t>
+          <t>乌鲁木齐市</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>新疆维吾尔自治区</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="50">
@@ -19641,16 +19639,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>邯郸市</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="51">
@@ -19659,16 +19657,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>呼伦贝尔市</t>
+          <t>南京市</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>内蒙古自治区</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="52">
@@ -19677,16 +19675,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>青岛市</t>
+          <t>武威市</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="53">
@@ -19695,16 +19693,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>东莞市</t>
+          <t>秦皇岛市</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="54">
@@ -19713,16 +19711,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>温州市</t>
+          <t>辽阳市</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="55">
@@ -19731,16 +19729,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>商丘市</t>
+          <t>深圳市</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="56">
@@ -19749,16 +19747,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>许昌市</t>
+          <t>枣庄市</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="57">
@@ -19767,16 +19765,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>郑州市</t>
+          <t>平凉市</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="58">
@@ -19785,16 +19783,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>衡水市</t>
+          <t>菏泽市</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="59">
@@ -19803,16 +19801,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>汉中市</t>
+          <t>长春市</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="60">
@@ -19821,16 +19819,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>潍坊市</t>
+          <t>常州市</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61">
@@ -19839,16 +19837,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>长春市</t>
+          <t>酒泉市</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>吉林省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="62">
@@ -19857,16 +19855,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>阜新市</t>
+          <t>济宁市</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63">
@@ -19875,7 +19873,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>太原市</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -19884,7 +19882,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="64">
@@ -19893,16 +19891,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>昆明市</t>
+          <t>德阳市</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65">
@@ -19911,16 +19909,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>盘锦市</t>
+          <t>固原市</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
@@ -19929,16 +19927,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>海东市</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="67">
@@ -19947,16 +19945,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>嘉峪关市</t>
+          <t>南充市</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="68">
@@ -19965,16 +19963,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>绵阳市</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="69">
@@ -19983,16 +19981,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>杭州市</t>
+          <t>张掖市</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="70">
@@ -20001,16 +19999,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>无锡市</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>重庆市</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="71">
@@ -20019,16 +20017,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>渭南市</t>
+          <t>温州市</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="72">
@@ -20037,16 +20035,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>防城港市</t>
+          <t>合肥市</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="73">
@@ -20055,16 +20053,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>哈密市</t>
+          <t>衡水市</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="74">
@@ -20073,16 +20071,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>厦门市</t>
+          <t>梧州市</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="75">
@@ -20091,16 +20089,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>南昌市</t>
+          <t>汉中市</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="76">
@@ -20109,16 +20107,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>咸阳市</t>
+          <t>泰州市</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="77">
@@ -20127,16 +20125,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>张掖市</t>
+          <t>信阳市</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="78">
@@ -20145,16 +20143,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>无锡市</t>
+          <t>宜宾市</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="79">
@@ -20163,16 +20161,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>泰州市</t>
+          <t>海口市</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="80">
@@ -20181,16 +20179,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>铜川市</t>
+          <t>天水市</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>陕西省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="81">
@@ -20199,16 +20197,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>哈尔滨市</t>
+          <t>阜新市</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="82">
@@ -20217,16 +20215,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>宁波市</t>
+          <t>聊城市</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="83">
@@ -20235,16 +20233,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>陵水黎族自治县</t>
+          <t>晋中市</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>海南省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="84">
@@ -20253,16 +20251,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>临夏回族自治州</t>
+          <t>宝鸡市</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>甘肃省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="85">
@@ -20271,16 +20269,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>周口市</t>
+          <t>福州市</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>福建省</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="86">
@@ -20289,16 +20287,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>澄迈县</t>
+          <t>宿迁市</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>海南省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="87">
@@ -20316,7 +20314,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="88">
@@ -20334,7 +20332,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="89">
@@ -20343,16 +20341,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>吉安市</t>
+          <t>南阳市</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="90">
@@ -20361,16 +20359,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>邯郸市</t>
+          <t>达州市</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>河北省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="91">
@@ -20379,16 +20377,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>新乡市</t>
+          <t>绥化市</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="92">
@@ -20397,16 +20395,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>忻州市</t>
+          <t>日照市</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>山西省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="93">
@@ -20415,16 +20413,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>昭通市</t>
+          <t>临汾市</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="94">
@@ -20433,7 +20431,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>陇南市</t>
+          <t>定西市</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -20442,7 +20440,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="95">
@@ -20451,16 +20449,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>昌吉回族自治州</t>
+          <t>海南藏族自治州</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>新疆维吾尔自治区</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="96">
@@ -20469,16 +20467,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>烟台市</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="97">
@@ -20487,16 +20485,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>遵义市</t>
+          <t>安阳市</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>贵州省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="98">
@@ -20505,16 +20503,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>琼海市</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>海南省</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="99">
@@ -20523,16 +20521,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>桂林市</t>
+          <t>阜阳市</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="100">
@@ -20541,16 +20539,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>濮阳市</t>
+          <t>渭南市</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>陕西省</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="101">
@@ -20559,16 +20557,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>自贡市</t>
+          <t>嘉兴市</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -22418,1842 +22416,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>城市</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>省份</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>比例</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>鄂尔多斯市</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>45.36</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>阿拉善盟</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>17.62</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>呼和浩特市</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>8.24</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>巴彦淖尔市</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>石嘴山市</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4.39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>包头市</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>银川市</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2.62</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>北京市</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>北京市</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>乌兰察布市</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>西安市</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>榆林市</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>天津市</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>天津市</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>张家口市</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>0.37</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>兰州市</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>庆阳市</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>0.28</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>中卫市</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>延安市</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>广州市</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>广东省</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>赤峰市</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>锡林郭勒盟</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>上海市</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>上海市</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>石家庄市</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>0.19</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>吴忠市</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>廊坊市</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>杭州市</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>大同市</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>唐山市</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>白银市</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>新乡市</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>西宁市</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>沈阳市</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>吕梁市</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>吉林市</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>保定市</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>重庆市</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>重庆市</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>咸阳市</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>承德市</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>成都市</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>郑州市</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>南宁市</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>广西壮族自治区</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>忻州市</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>沧州市</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>青岛市</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>通辽市</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>内蒙古自治区</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>贵阳市</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>贵州省</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>商丘市</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>许昌市</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>乌鲁木齐市</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>新疆维吾尔自治区</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>邯郸市</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>南京市</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>武威市</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>秦皇岛市</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>辽阳市</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>深圳市</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>广东省</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>枣庄市</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>平凉市</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>菏泽市</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>长春市</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>吉林省</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>常州市</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>酒泉市</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>济宁市</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>太原市</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>德阳市</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>固原市</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>宁夏回族自治区</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>海东市</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>南充市</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>绵阳市</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>张掖市</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>无锡市</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>温州市</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>合肥市</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>衡水市</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>梧州市</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>广西壮族自治区</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>汉中市</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>泰州市</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>信阳市</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>宜宾市</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>海口市</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>天水市</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>阜新市</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>辽宁省</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>聊城市</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>晋中市</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>宝鸡市</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>福州市</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>福建省</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>宿迁市</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>江苏省</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>金昌市</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>三门峡市</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>南阳市</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>达州市</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>四川省</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>绥化市</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>黑龙江省</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>日照市</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>临汾市</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>定西市</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>甘肃省</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>海南藏族自治州</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>青海省</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>烟台市</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>安阳市</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>河南省</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>琼海市</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>海南省</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>阜阳市</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>安徽省</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>渭南市</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>陕西省</t>
-        </is>
-      </c>
-      <c r="D100" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>嘉兴市</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>浙江省</t>
-        </is>
-      </c>
-      <c r="D101" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25922,7 +24084,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27722,7 +25884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -29414,7 +27576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -30980,7 +29142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -32528,7 +30690,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33842,7 +32004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35084,7 +33246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -36445,42 +34607,6 @@
       </c>
       <c r="D75" t="n">
         <v>0.08</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>城市</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>省份</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>比例</t>
-        </is>
       </c>
     </row>
   </sheetData>
